--- a/biology/Médecine/Hyperflexion/Hyperflexion.xlsx
+++ b/biology/Médecine/Hyperflexion/Hyperflexion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, une hyperflexion est une flexion d'un membre ou d'une partie allant au-delà de la limite normale. Une hyperflexion se produit généralement lors d'un impact.
 </t>
@@ -511,13 +523,15 @@
           <t>Traumatisme causé par une hyperflexion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quelques exemples de blessures caractérisées par une hyperflexion :
-Un traumatisme du rachis cervical, aussi connus sous le nom de « Coup du lapin », est caractérisé par une hyperflexion et/ou une hyperextension[1].
-Une lésion du ligament croisé postérieur est caractérisée par une hyperflexion du genou[2].
-Une entorse au poignet peut être caractérisée par une hyperflexion de celui-ci[3].
-Une ou plusieurs fractures aux métatarses et/ou aux tarses peuvent être caractérisées par une hyperflexion du pied[4].</t>
+Un traumatisme du rachis cervical, aussi connus sous le nom de « Coup du lapin », est caractérisé par une hyperflexion et/ou une hyperextension.
+Une lésion du ligament croisé postérieur est caractérisée par une hyperflexion du genou.
+Une entorse au poignet peut être caractérisée par une hyperflexion de celui-ci.
+Une ou plusieurs fractures aux métatarses et/ou aux tarses peuvent être caractérisées par une hyperflexion du pied.</t>
         </is>
       </c>
     </row>
